--- a/output/xlsx/RF008 - Gerenciar Respostas de Avaliacoes--GT-.xlsx
+++ b/output/xlsx/RF008 - Gerenciar Respostas de Avaliacoes--GT-.xlsx
@@ -140,13 +140,13 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro informando ao usuario que nao e um dos avaliadores</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro informando ao usuario que nao e um dos avaliadores</t>
   </si>
   <si>
     <t>TC4</t>
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s" s="6">
         <v>2</v>
@@ -798,110 +798,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="28"/>
+    <row r="29"/>
     <row r="30">
-      <c r="A30" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s" s="6">
+      <c r="A30" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32"/>
+      <c r="A31" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="33">
-      <c r="A33" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s" s="6">
-        <v>2</v>
+      <c r="A33" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="10">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D34" t="s" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s" s="6">
         <v>2</v>
@@ -910,100 +900,110 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35"/>
-    <row r="36"/>
+    <row r="35">
+      <c r="A35" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="37">
-      <c r="A37" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s" s="4">
+      <c r="A37" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s" s="9">
+      <c r="A38" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F40" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
+      <c r="A39" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40"/>
     <row r="41">
       <c r="A41" t="n" s="10">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="10">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
@@ -1274,8 +1274,8 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:F32"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:F47"/>
   </mergeCells>

--- a/output/xlsx/RF008 - Gerenciar Respostas de Avaliacoes--GT-.xlsx
+++ b/output/xlsx/RF008 - Gerenciar Respostas de Avaliacoes--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -146,13 +146,13 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -965,13 +965,13 @@
         <v>5.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -980,152 +980,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="39"/>
     <row r="40"/>
     <row r="41">
-      <c r="A41" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B41" t="s" s="7">
+      <c r="A41" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45">
-      <c r="A45" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s" s="5">
-        <v>25</v>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1136,47 +1164,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D50" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    </row>
+    <row r="51"/>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B52" t="s" s="7">
         <v>32</v>
@@ -1196,73 +1196,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="10">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D53" t="s" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F53" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B54" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C54" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55"/>
-    <row r="56">
-      <c r="A56" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B56" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B57" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C57" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E57" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1276,8 +1224,8 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:F43"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF008 - Gerenciar Respostas de Avaliacoes--GT-.xlsx
+++ b/output/xlsx/RF008 - Gerenciar Respostas de Avaliacoes--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="58">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.1</t>
+    <t>1.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Coverage)</t>
   </si>
   <si>
-    <t>Size: 4 test case(s))</t>
+    <t>Size: 5 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Avaliador de Pessoas esta autenticado no sistema; e, tem permissao para gerenciar Respostas de Avaliacoes</t>
+    <t>Avaliador de Pessoas esta autenticado no sistema e tem permissao para gerenciar Respostas de Avaliacoes</t>
   </si>
   <si>
     <t>#</t>
@@ -95,15 +95,27 @@
     <t>Avaliador de Pessoas acessa a funcionalidade de Avaliacoes a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com a opcao 'Formulario' dentre as varias listadas</t>
-  </si>
-  <si>
-    <t>Avaliador de Pessoas com uma avaliacao selecionada, clica na opcao 'Formulario' para criar uma nova Avaliacao</t>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com a opcao 'Formulario' dentre as varias exibidas</t>
+  </si>
+  <si>
+    <t>Avaliador de Pessoas com uma avaliacao selecionada, clica na opcao 'Formulario' para responder a uma Avaliacao ou Autoavaliacao</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Respostas de Avaliacao</t>
   </si>
   <si>
+    <t>Avaliador de Pessoas seleciona o 'Nivel de Interacao' para cada Perfil de Competencias avaliado</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o campo 'Nivel de Interacao' preenchido corretamente</t>
+  </si>
+  <si>
+    <t>Avaliador de Pessoas seleciona que e 'Capaz de Avaliar a Competencia' para cada Perfil de Competencias avaliado</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o campo 'Capaz de Avaliar' preenchido como 'SIM'</t>
+  </si>
+  <si>
     <t>Avaliador de Pessoas seleciona o 'Nivel da Competencia' da Avaliacao (1 a 4) para cada Perfil de Competencias avaliado</t>
   </si>
   <si>
@@ -119,40 +131,61 @@
     <t>Avaliador de Pessoas clica na opcao 'Excluir' para cada Perfil de Competencias avaliado</t>
   </si>
   <si>
-    <t>SYSTEM limpa os campos apresentados 'Nivel da Competencia' e 'Apontamentos' apresentados na tela para cada Perfil de Competencias avaliado</t>
+    <t>SYSTEM limpa os campos 'Nivel da Competencia' e 'Apontamentos' exibidos na tela para cada Perfil de Competencias avaliado</t>
   </si>
   <si>
     <t>Avaliador de Pessoas verifica que os campos 'Nivel da Competencia' e 'Apontamentos' estao limpos</t>
   </si>
   <si>
+    <t>Avaliador de Pessoas seleciona que nao e 'Capaz de Avaliar a Competencia' para cada Perfil de Competencias avaliado</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o campo 'Capaz de Avaliar' preenchido como 'NAO'</t>
+  </si>
+  <si>
+    <t>Avaliador de Pessoas preenche o campo de 'Justificativas' para cada Perfil de Competencias avaliado</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o campo de 'Capaz de Avaliar' preenchido corretamente</t>
+  </si>
+  <si>
+    <t>Avaliador de Pessoas clica no botao 'Justificar'</t>
+  </si>
+  <si>
+    <t>SYSTEM realiza a acao conforme a opcao selecionada pelo usuario e      retorna feedback correspondente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>A gestao de Respostas de Avaliacoes e realizada com sucesso.</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
     <t>Avaliador de Pessoas clica na opcao 'Salvar'</t>
   </si>
   <si>
-    <t>SYSTEM realiza a acao conforme a opcao selecionada pelo usuario e     retorna feedback correspondente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>A gestao de Respostas de Avaliacoes e realizada com sucesso.</t>
-  </si>
-  <si>
-    <t>TC2</t>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro informando ao usuario que nao informou justificativa</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro informando ao usuario que nao e um dos avaliadores</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -348,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -614,284 +647,322 @@
       <c r="C15" t="s" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16"/>
+      <c r="D15" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="17">
       <c r="A17" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B17" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B19" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B20" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B21" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B32" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C17" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s" s="7">
+      <c r="C32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E17" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22">
-      <c r="A22" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="8">
+      <c r="E32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s" s="5">
-        <v>25</v>
+      <c r="A33" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D34" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s" s="6">
         <v>2</v>
@@ -902,178 +973,178 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B43" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="7">
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="10">
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="10">
         <v>3.0</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B44" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C36" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s" s="7">
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="E36" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="E38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41">
-      <c r="A41" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C44" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F44" t="s" s="5">
-        <v>25</v>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D45" t="s" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s" s="6">
         <v>2</v>
@@ -1084,16 +1155,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D46" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s" s="6">
         <v>2</v>
@@ -1104,16 +1175,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B47" t="s" s="7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D47" t="s" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s" s="6">
         <v>2</v>
@@ -1124,16 +1195,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D48" t="s" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s" s="6">
         <v>2</v>
@@ -1144,48 +1215,48 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D49" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B50" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51"/>
+    </row>
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B51" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1196,21 +1267,437 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56">
+      <c r="A56" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B62" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B64" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B53" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="E53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s" s="6">
+      <c r="B67" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1219,13 +1706,15 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:F76"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
